--- a/Planilla Resultados.xlsx
+++ b/Planilla Resultados.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba58f79a5dcad87f/Escritorio/facultad/materias/Acústica y Psicoacústica II/AyP2-mod2-TP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{D5CD8D89-CB9B-4F34-9CA0-2AEE798AD357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2D10FA0-6C92-4D2B-B496-908B365C1EE6}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{D5CD8D89-CB9B-4F34-9CA0-2AEE798AD357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4AE2AAE-A9DB-4A2A-BB8E-1991EE0F171C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
+    <sheet name="Madera_5.0_4.0_54.0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>SHARP</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>DIFERENCIA</t>
+  </si>
+  <si>
+    <t>Madera</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Plantilla!$B$6:$AF$6</c:f>
+              <c:f>'Madera_5.0_4.0_54.0'!$B$6:$AF$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -363,10 +366,103 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plantilla!$B$7:$AF$7</c:f>
+              <c:f>'Madera_5.0_4.0_54.0'!$B$7:$AF$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>9.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.03</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39.58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42.56</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51.69</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>57.82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60.72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63.62</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66.83</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>69.73</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -397,7 +493,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Plantilla!$B$6:$AF$6</c:f>
+              <c:f>'Madera_5.0_4.0_54.0'!$B$6:$AF$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -499,10 +595,103 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plantilla!$B$8:$AF$8</c:f>
+              <c:f>'Madera_5.0_4.0_54.0'!$B$8:$AF$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>9.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44.85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47.81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59.76</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62.63</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65.14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>69.23</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -533,7 +722,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Plantilla!$B$6:$AF$6</c:f>
+              <c:f>'Madera_5.0_4.0_54.0'!$B$6:$AF$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -635,10 +824,103 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plantilla!$B$9:$AF$9</c:f>
+              <c:f>'Madera_5.0_4.0_54.0'!$B$9:$AF$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>17.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.96</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41.69</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47.29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.86</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55.58</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>58.34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60.84</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63.24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65.78</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.94</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -654,7 +936,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plantilla!$A$10</c:f>
+              <c:f>'Madera_5.0_4.0_54.0'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -677,7 +959,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Plantilla!$B$6:$AF$6</c:f>
+              <c:f>'Madera_5.0_4.0_54.0'!$B$6:$AF$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -779,10 +1061,103 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plantilla!$B$10:$AF$10</c:f>
+              <c:f>'Madera_5.0_4.0_54.0'!$B$10:$AF$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44.35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47.41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.55</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53.47</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.49</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59.61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62.51</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65.41</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68.62</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71.52</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1720,10 +2095,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2002,26 +2373,34 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:32" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
@@ -2125,145 +2504,393 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
+      <c r="B7" s="6">
+        <v>9.93</v>
+      </c>
+      <c r="C7" s="6">
+        <v>11.86</v>
+      </c>
+      <c r="D7" s="6">
+        <v>13.87</v>
+      </c>
+      <c r="E7" s="6">
+        <v>15.95</v>
+      </c>
+      <c r="F7" s="6">
+        <v>17.89</v>
+      </c>
+      <c r="G7" s="6">
+        <v>19.89</v>
+      </c>
+      <c r="H7" s="6">
+        <v>21.97</v>
+      </c>
+      <c r="I7" s="6">
+        <v>23.91</v>
+      </c>
+      <c r="J7" s="6">
+        <v>25.84</v>
+      </c>
+      <c r="K7" s="6">
+        <v>27.99</v>
+      </c>
+      <c r="L7" s="6">
+        <v>29.93</v>
+      </c>
+      <c r="M7" s="6">
+        <v>31.86</v>
+      </c>
+      <c r="N7" s="6">
+        <v>7.86</v>
+      </c>
+      <c r="O7" s="6">
+        <v>14.84</v>
+      </c>
+      <c r="P7" s="6">
+        <v>19.23</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>23.11</v>
+      </c>
+      <c r="R7" s="6">
+        <v>26.78</v>
+      </c>
+      <c r="S7" s="6">
+        <v>30.03</v>
+      </c>
+      <c r="T7" s="6">
+        <v>33.17</v>
+      </c>
+      <c r="U7" s="6">
+        <v>36.56</v>
+      </c>
+      <c r="V7" s="6">
+        <v>39.58</v>
+      </c>
+      <c r="W7" s="6">
+        <v>42.56</v>
+      </c>
+      <c r="X7" s="6">
+        <v>45.62</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>48.76</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>51.69</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>54.7</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>57.82</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>60.72</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>63.62</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>66.83</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>69.73</v>
+      </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
+      <c r="B8" s="6">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="C8" s="6">
+        <v>11.26</v>
+      </c>
+      <c r="D8" s="6">
+        <v>13.23</v>
+      </c>
+      <c r="E8" s="6">
+        <v>15.28</v>
+      </c>
+      <c r="F8" s="6">
+        <v>17.21</v>
+      </c>
+      <c r="G8" s="6">
+        <v>19.21</v>
+      </c>
+      <c r="H8" s="6">
+        <v>21.28</v>
+      </c>
+      <c r="I8" s="6">
+        <v>23.21</v>
+      </c>
+      <c r="J8" s="6">
+        <v>25.15</v>
+      </c>
+      <c r="K8" s="6">
+        <v>24.62</v>
+      </c>
+      <c r="L8" s="6">
+        <v>22.05</v>
+      </c>
+      <c r="M8" s="6">
+        <v>18.84</v>
+      </c>
+      <c r="N8" s="6">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="O8" s="6">
+        <v>21.73</v>
+      </c>
+      <c r="P8" s="6">
+        <v>24.52</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>27.41</v>
+      </c>
+      <c r="R8" s="6">
+        <v>30.41</v>
+      </c>
+      <c r="S8" s="6">
+        <v>33.22</v>
+      </c>
+      <c r="T8" s="6">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="U8" s="6">
+        <v>39.17</v>
+      </c>
+      <c r="V8" s="6">
+        <v>42.01</v>
+      </c>
+      <c r="W8" s="6">
+        <v>44.85</v>
+      </c>
+      <c r="X8" s="6">
+        <v>47.81</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>50.86</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>53.72</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>56.69</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>59.76</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>62.63</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>65.14</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>69.23</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
+      <c r="B9" s="6">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="C9" s="6">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="D9" s="6">
+        <v>18.87</v>
+      </c>
+      <c r="E9" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F9" s="6">
+        <v>21.02</v>
+      </c>
+      <c r="G9" s="6">
+        <v>22.28</v>
+      </c>
+      <c r="H9" s="6">
+        <v>23.66</v>
+      </c>
+      <c r="I9" s="6">
+        <v>24.97</v>
+      </c>
+      <c r="J9" s="6">
+        <v>26.27</v>
+      </c>
+      <c r="K9" s="6">
+        <v>27.59</v>
+      </c>
+      <c r="L9" s="6">
+        <v>28.41</v>
+      </c>
+      <c r="M9" s="6">
+        <v>25.77</v>
+      </c>
+      <c r="N9" s="6">
+        <v>17</v>
+      </c>
+      <c r="O9" s="6">
+        <v>20.07</v>
+      </c>
+      <c r="P9" s="6">
+        <v>23.59</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>26.86</v>
+      </c>
+      <c r="R9" s="6">
+        <v>30.06</v>
+      </c>
+      <c r="S9" s="6">
+        <v>32.96</v>
+      </c>
+      <c r="T9" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="U9" s="6">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="V9" s="6">
+        <v>41.69</v>
+      </c>
+      <c r="W9" s="6">
+        <v>44.45</v>
+      </c>
+      <c r="X9" s="6">
+        <v>47.29</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>50.18</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>52.86</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>55.58</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>58.34</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>60.84</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>63.24</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>65.78</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>67.94</v>
+      </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
+      <c r="B10" s="6">
+        <v>12.95</v>
+      </c>
+      <c r="C10" s="6">
+        <v>14.26</v>
+      </c>
+      <c r="D10" s="6">
+        <v>15.62</v>
+      </c>
+      <c r="E10" s="6">
+        <v>17.02</v>
+      </c>
+      <c r="F10" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="G10" s="6">
+        <v>19.59</v>
+      </c>
+      <c r="H10" s="6">
+        <v>20.8</v>
+      </c>
+      <c r="I10" s="6">
+        <v>21.72</v>
+      </c>
+      <c r="J10" s="6">
+        <v>22.25</v>
+      </c>
+      <c r="K10" s="6">
+        <v>21.78</v>
+      </c>
+      <c r="L10" s="6">
+        <v>19.11</v>
+      </c>
+      <c r="M10" s="6">
+        <v>9.08</v>
+      </c>
+      <c r="N10" s="6">
+        <v>12.74</v>
+      </c>
+      <c r="O10" s="6">
+        <v>16.63</v>
+      </c>
+      <c r="P10" s="6">
+        <v>21.02</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>24.9</v>
+      </c>
+      <c r="R10" s="6">
+        <v>28.57</v>
+      </c>
+      <c r="S10" s="6">
+        <v>31.82</v>
+      </c>
+      <c r="T10" s="6">
+        <v>34.96</v>
+      </c>
+      <c r="U10" s="6">
+        <v>38.35</v>
+      </c>
+      <c r="V10" s="6">
+        <v>41.37</v>
+      </c>
+      <c r="W10" s="6">
+        <v>44.35</v>
+      </c>
+      <c r="X10" s="6">
+        <v>47.41</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>50.55</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>53.47</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>56.49</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>59.61</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>62.51</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>65.41</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>68.62</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>71.52</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
@@ -2611,127 +3238,127 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" ref="B19:Q22" si="0">B7-B13</f>
-        <v>0</v>
+        <v>9.93</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.86</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.87</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.95</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.89</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.89</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.97</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23.91</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.84</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27.99</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.93</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31.86</v>
       </c>
       <c r="N19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.86</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.84</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.23</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23.11</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" ref="C19:AF22" si="1">R7-R13</f>
-        <v>0</v>
+        <v>26.78</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30.03</v>
       </c>
       <c r="T19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33.17</v>
       </c>
       <c r="U19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.56</v>
       </c>
       <c r="V19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.58</v>
       </c>
       <c r="W19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42.56</v>
       </c>
       <c r="X19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45.62</v>
       </c>
       <c r="Y19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48.76</v>
       </c>
       <c r="Z19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>51.69</v>
       </c>
       <c r="AA19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54.7</v>
       </c>
       <c r="AB19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>57.82</v>
       </c>
       <c r="AC19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60.72</v>
       </c>
       <c r="AD19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>63.62</v>
       </c>
       <c r="AE19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66.83</v>
       </c>
       <c r="AF19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69.73</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
@@ -2740,127 +3367,127 @@
       </c>
       <c r="B20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.26</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.23</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.28</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.21</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.21</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.28</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.21</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.15</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.62</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.05</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.84</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.73</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.52</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27.41</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30.41</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33.22</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="U20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39.17</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42.01</v>
       </c>
       <c r="W20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44.85</v>
       </c>
       <c r="X20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47.81</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50.86</v>
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>53.72</v>
       </c>
       <c r="AA20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56.69</v>
       </c>
       <c r="AB20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>59.76</v>
       </c>
       <c r="AC20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62.63</v>
       </c>
       <c r="AD20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65.14</v>
       </c>
       <c r="AE20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67.290000000000006</v>
       </c>
       <c r="AF20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69.23</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
@@ -2869,127 +3496,127 @@
       </c>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.87</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.02</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.28</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.66</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.97</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.27</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27.59</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28.41</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.77</v>
       </c>
       <c r="N21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.07</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.59</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.86</v>
       </c>
       <c r="R21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30.06</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32.96</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="U21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.909999999999997</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41.69</v>
       </c>
       <c r="W21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44.45</v>
       </c>
       <c r="X21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47.29</v>
       </c>
       <c r="Y21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50.18</v>
       </c>
       <c r="Z21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.86</v>
       </c>
       <c r="AA21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55.58</v>
       </c>
       <c r="AB21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>58.34</v>
       </c>
       <c r="AC21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60.84</v>
       </c>
       <c r="AD21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>63.24</v>
       </c>
       <c r="AE21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65.78</v>
       </c>
       <c r="AF21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67.94</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
@@ -2998,127 +3625,127 @@
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.95</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.26</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.62</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.02</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.59</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.72</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.25</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.78</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19.11</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.08</v>
       </c>
       <c r="N22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.74</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.63</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.02</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="R22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28.57</v>
       </c>
       <c r="S22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31.82</v>
       </c>
       <c r="T22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34.96</v>
       </c>
       <c r="U22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.35</v>
       </c>
       <c r="V22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41.37</v>
       </c>
       <c r="W22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44.35</v>
       </c>
       <c r="X22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47.41</v>
       </c>
       <c r="Y22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50.55</v>
       </c>
       <c r="Z22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>53.47</v>
       </c>
       <c r="AA22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56.49</v>
       </c>
       <c r="AB22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>59.61</v>
       </c>
       <c r="AC22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62.51</v>
       </c>
       <c r="AD22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65.41</v>
       </c>
       <c r="AE22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68.62</v>
       </c>
       <c r="AF22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>71.52</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">

--- a/Planilla Resultados.xlsx
+++ b/Planilla Resultados.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba58f79a5dcad87f/Escritorio/facultad/materias/Acústica y Psicoacústica II/AyP2-mod2-TP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{D5CD8D89-CB9B-4F34-9CA0-2AEE798AD357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4AE2AAE-A9DB-4A2A-BB8E-1991EE0F171C}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="13_ncr:1_{D5CD8D89-CB9B-4F34-9CA0-2AEE798AD357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE5A80E7-8873-4B3D-A220-5B65AD6D8DE2}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Madera_5.0_4.0_54.0" sheetId="1" r:id="rId1"/>
+    <sheet name="Hormigón_2.0_3.0_23.0" sheetId="2" r:id="rId2"/>
+    <sheet name="Hormigón_2.0_2.0_123.0" sheetId="3" r:id="rId3"/>
+    <sheet name="Plomo_2.0_2.0_123.0" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
   <si>
     <t>SHARP</t>
   </si>
@@ -70,6 +73,12 @@
   </si>
   <si>
     <t>Madera</t>
+  </si>
+  <si>
+    <t>Hormigón</t>
+  </si>
+  <si>
+    <t>Plomo</t>
   </si>
 </sst>
 </file>
@@ -1165,6 +1174,3270 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2E23-4D8E-BA20-E0B598E44F08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1664914511"/>
+        <c:axId val="1664922191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1664914511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664922191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1664922191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Transmission Loss [dB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664914511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cremer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_3.0_23.0'!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_3.0_23.0'!$B$7:$AF$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>13.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.86</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44.04</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.83</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57.32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60.48</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66.69</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69.66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3034-41A5-86DF-106AD803CEF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sharp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_3.0_23.0'!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_3.0_23.0'!$B$8:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>13.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.04</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50.87</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62.84</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67.14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69.08</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71.22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3034-41A5-86DF-106AD803CEF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Davy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_3.0_23.0'!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_3.0_23.0'!$B$9:$AF$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>28.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52.43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58.69</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67.55</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3034-41A5-86DF-106AD803CEF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hormigón_2.0_3.0_23.0'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISO 12354-1:2001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_3.0_23.0'!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_3.0_23.0'!$B$10:$AF$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.83</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.01</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62.27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71.45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74.72</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>77.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3034-41A5-86DF-106AD803CEF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1664914511"/>
+        <c:axId val="1664922191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1664914511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664922191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1664922191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Transmission Loss [dB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664914511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cremer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_2.0_123.0'!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_2.0_123.0'!$B$7:$AF$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>28.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>74.39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83.29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86.36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.23</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86.48</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>88.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2D0-410B-B111-85A02B856919}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sharp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_2.0_123.0'!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_2.0_123.0'!$B$8:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E2D0-410B-B111-85A02B856919}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Davy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_2.0_123.0'!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_2.0_123.0'!$B$9:$AF$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E2D0-410B-B111-85A02B856919}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hormigón_2.0_2.0_123.0'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISO 12354-1:2001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_2.0_123.0'!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hormigón_2.0_2.0_123.0'!$B$10:$AF$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E2D0-410B-B111-85A02B856919}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1664914511"/>
+        <c:axId val="1664922191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1664914511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664922191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1664922191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Transmission Loss [dB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1664914511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cremer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plomo_2.0_2.0_123.0'!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plomo_2.0_2.0_123.0'!$B$7:$AF$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-591C-48F2-BA7C-FCBDDDB98AFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sharp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plomo_2.0_2.0_123.0'!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plomo_2.0_2.0_123.0'!$B$8:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62.19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81.97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84.49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87.08</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89.14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>91.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93.22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95.16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>97.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99.24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>101.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-591C-48F2-BA7C-FCBDDDB98AFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Davy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plomo_2.0_2.0_123.0'!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plomo_2.0_2.0_123.0'!$B$9:$AF$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-591C-48F2-BA7C-FCBDDDB98AFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plomo_2.0_2.0_123.0'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISO 12354-1:2001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plomo_2.0_2.0_123.0'!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plomo_2.0_2.0_123.0'!$B$10:$AF$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-591C-48F2-BA7C-FCBDDDB98AFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1538,7 +4811,1675 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2095,6 +7036,135 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15876</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>103189</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6FB327-A101-45FB-80F7-D7160E705E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15876</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>103189</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8446D58-1B12-4DC6-A53F-EABDA10B65C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15876</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>103189</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CA0368-4A47-422A-B1D9-C196FABA6121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2360,7 +7430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -3755,4 +8825,3835 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5179236D-3112-4DDE-B7CE-99241E55E138}">
+  <dimension ref="A1:AF24"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="21" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1">
+        <v>80</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1">
+        <v>125</v>
+      </c>
+      <c r="K6" s="1">
+        <v>160</v>
+      </c>
+      <c r="L6" s="1">
+        <v>200</v>
+      </c>
+      <c r="M6" s="1">
+        <v>250</v>
+      </c>
+      <c r="N6" s="1">
+        <v>315</v>
+      </c>
+      <c r="O6" s="1">
+        <v>400</v>
+      </c>
+      <c r="P6" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>630</v>
+      </c>
+      <c r="R6" s="1">
+        <v>800</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1250</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1600</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="W6" s="1">
+        <v>2500</v>
+      </c>
+      <c r="X6" s="1">
+        <v>3150</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>12500</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>16000</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>13.86</v>
+      </c>
+      <c r="C7" s="6">
+        <v>15.8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>17.8</v>
+      </c>
+      <c r="E7" s="6">
+        <v>19.88</v>
+      </c>
+      <c r="F7" s="6">
+        <v>21.82</v>
+      </c>
+      <c r="G7" s="6">
+        <v>23.83</v>
+      </c>
+      <c r="H7" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="I7" s="6">
+        <v>27.84</v>
+      </c>
+      <c r="J7" s="6">
+        <v>29.78</v>
+      </c>
+      <c r="K7" s="6">
+        <v>31.92</v>
+      </c>
+      <c r="L7" s="6">
+        <v>33.86</v>
+      </c>
+      <c r="M7" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="N7" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="O7" s="6">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="P7" s="6">
+        <v>41.82</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>43.83</v>
+      </c>
+      <c r="R7" s="6">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="S7" s="6">
+        <v>30.64</v>
+      </c>
+      <c r="T7" s="6">
+        <v>35.86</v>
+      </c>
+      <c r="U7" s="6">
+        <v>40.4</v>
+      </c>
+      <c r="V7" s="6">
+        <v>44.04</v>
+      </c>
+      <c r="W7" s="6">
+        <v>47.45</v>
+      </c>
+      <c r="X7" s="6">
+        <v>50.83</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>54.22</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>57.32</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>60.48</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>63.7</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>66.69</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>69.66</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>72.930000000000007</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>75.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6">
+        <v>13.22</v>
+      </c>
+      <c r="C8" s="6">
+        <v>15.13</v>
+      </c>
+      <c r="D8" s="6">
+        <v>17.13</v>
+      </c>
+      <c r="E8" s="6">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="F8" s="6">
+        <v>21.13</v>
+      </c>
+      <c r="G8" s="6">
+        <v>23.13</v>
+      </c>
+      <c r="H8" s="6">
+        <v>25.2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>27.14</v>
+      </c>
+      <c r="J8" s="6">
+        <v>29.08</v>
+      </c>
+      <c r="K8" s="6">
+        <v>31.22</v>
+      </c>
+      <c r="L8" s="6">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="M8" s="6">
+        <v>35.1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>37.1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="P8" s="6">
+        <v>38.11</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>37.07</v>
+      </c>
+      <c r="R8" s="6">
+        <v>36.17</v>
+      </c>
+      <c r="S8" s="6">
+        <v>39.04</v>
+      </c>
+      <c r="T8" s="6">
+        <v>41.92</v>
+      </c>
+      <c r="U8" s="6">
+        <v>45.1</v>
+      </c>
+      <c r="V8" s="6">
+        <v>47.98</v>
+      </c>
+      <c r="W8" s="6">
+        <v>50.87</v>
+      </c>
+      <c r="X8" s="6">
+        <v>53.86</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>56.95</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>59.84</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>62.84</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>65.2</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>67.14</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>69.08</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>71.22</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>73.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>28.41</v>
+      </c>
+      <c r="C9" s="6">
+        <v>30.25</v>
+      </c>
+      <c r="D9" s="6">
+        <v>27.4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>27.07</v>
+      </c>
+      <c r="F9" s="6">
+        <v>27.54</v>
+      </c>
+      <c r="G9" s="6">
+        <v>28.39</v>
+      </c>
+      <c r="H9" s="6">
+        <v>29.51</v>
+      </c>
+      <c r="I9" s="6">
+        <v>30.69</v>
+      </c>
+      <c r="J9" s="6">
+        <v>31.96</v>
+      </c>
+      <c r="K9" s="6">
+        <v>33.43</v>
+      </c>
+      <c r="L9" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M9" s="6">
+        <v>36.17</v>
+      </c>
+      <c r="N9" s="6">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="O9" s="6">
+        <v>38.89</v>
+      </c>
+      <c r="P9" s="6">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>40.01</v>
+      </c>
+      <c r="R9" s="6">
+        <v>31.87</v>
+      </c>
+      <c r="S9" s="6">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="T9" s="6">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="U9" s="6">
+        <v>42.27</v>
+      </c>
+      <c r="V9" s="6">
+        <v>45.81</v>
+      </c>
+      <c r="W9" s="6">
+        <v>49.14</v>
+      </c>
+      <c r="X9" s="6">
+        <v>52.43</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>55.71</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>58.69</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>61.71</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>67.55</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>70.260000000000005</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>75.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>24.15</v>
+      </c>
+      <c r="C10" s="6">
+        <v>23.98</v>
+      </c>
+      <c r="D10" s="6">
+        <v>24.42</v>
+      </c>
+      <c r="E10" s="6">
+        <v>25.24</v>
+      </c>
+      <c r="F10" s="6">
+        <v>26.24</v>
+      </c>
+      <c r="G10" s="6">
+        <v>27.42</v>
+      </c>
+      <c r="H10" s="6">
+        <v>28.77</v>
+      </c>
+      <c r="I10" s="6">
+        <v>30.11</v>
+      </c>
+      <c r="J10" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="K10" s="6">
+        <v>33.1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>34.56</v>
+      </c>
+      <c r="M10" s="6">
+        <v>36.03</v>
+      </c>
+      <c r="N10" s="6">
+        <v>37.51</v>
+      </c>
+      <c r="O10" s="6">
+        <v>38.869999999999997</v>
+      </c>
+      <c r="P10" s="6">
+        <v>39.53</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>37.22</v>
+      </c>
+      <c r="R10" s="6">
+        <v>30.15</v>
+      </c>
+      <c r="S10" s="6">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="T10" s="6">
+        <v>37.65</v>
+      </c>
+      <c r="U10" s="6">
+        <v>42.19</v>
+      </c>
+      <c r="V10" s="6">
+        <v>45.83</v>
+      </c>
+      <c r="W10" s="6">
+        <v>49.24</v>
+      </c>
+      <c r="X10" s="6">
+        <v>52.62</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>56.01</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>59.11</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>62.27</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>65.489999999999995</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>68.48</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>71.45</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>74.72</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>77.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1">
+        <v>80</v>
+      </c>
+      <c r="I12" s="1">
+        <v>100</v>
+      </c>
+      <c r="J12" s="1">
+        <v>125</v>
+      </c>
+      <c r="K12" s="1">
+        <v>160</v>
+      </c>
+      <c r="L12" s="1">
+        <v>200</v>
+      </c>
+      <c r="M12" s="1">
+        <v>250</v>
+      </c>
+      <c r="N12" s="1">
+        <v>315</v>
+      </c>
+      <c r="O12" s="1">
+        <v>400</v>
+      </c>
+      <c r="P12" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>630</v>
+      </c>
+      <c r="R12" s="1">
+        <v>800</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1250</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1600</v>
+      </c>
+      <c r="V12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="W12" s="1">
+        <v>2500</v>
+      </c>
+      <c r="X12" s="1">
+        <v>3150</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>12500</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>16000</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1">
+        <v>63</v>
+      </c>
+      <c r="H18" s="1">
+        <v>80</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+      <c r="J18" s="1">
+        <v>125</v>
+      </c>
+      <c r="K18" s="1">
+        <v>160</v>
+      </c>
+      <c r="L18" s="1">
+        <v>200</v>
+      </c>
+      <c r="M18" s="1">
+        <v>250</v>
+      </c>
+      <c r="N18" s="1">
+        <v>315</v>
+      </c>
+      <c r="O18" s="1">
+        <v>400</v>
+      </c>
+      <c r="P18" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>630</v>
+      </c>
+      <c r="R18" s="1">
+        <v>800</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1250</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1600</v>
+      </c>
+      <c r="V18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="W18" s="1">
+        <v>2500</v>
+      </c>
+      <c r="X18" s="1">
+        <v>3150</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>12500</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" ref="B19:AF22" si="0">B7-B13</f>
+        <v>13.86</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>15.8</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>17.8</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>19.88</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>21.82</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>23.83</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>25.9</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>27.84</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>29.78</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>31.92</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>33.86</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="0"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="0"/>
+        <v>39.880000000000003</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="0"/>
+        <v>41.82</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="0"/>
+        <v>43.83</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="0"/>
+        <v>18.010000000000002</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="0"/>
+        <v>30.64</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="0"/>
+        <v>35.86</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="0"/>
+        <v>40.4</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="0"/>
+        <v>44.04</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="0"/>
+        <v>47.45</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="0"/>
+        <v>50.83</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="0"/>
+        <v>54.22</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="0"/>
+        <v>57.32</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" si="0"/>
+        <v>60.48</v>
+      </c>
+      <c r="AB19" s="4">
+        <f t="shared" si="0"/>
+        <v>63.7</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" si="0"/>
+        <v>66.69</v>
+      </c>
+      <c r="AD19" s="4">
+        <f t="shared" si="0"/>
+        <v>69.66</v>
+      </c>
+      <c r="AE19" s="4">
+        <f t="shared" si="0"/>
+        <v>72.930000000000007</v>
+      </c>
+      <c r="AF19" s="4">
+        <f t="shared" si="0"/>
+        <v>75.88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>13.22</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>15.13</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>17.13</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>19.190000000000001</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>21.13</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>23.13</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>27.14</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>29.08</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>31.22</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>33.159999999999997</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="0"/>
+        <v>35.1</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>37.1</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="0"/>
+        <v>38.9</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="0"/>
+        <v>38.11</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="0"/>
+        <v>37.07</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="0"/>
+        <v>36.17</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="0"/>
+        <v>39.04</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="0"/>
+        <v>41.92</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="0"/>
+        <v>45.1</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="0"/>
+        <v>47.98</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="0"/>
+        <v>50.87</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="0"/>
+        <v>53.86</v>
+      </c>
+      <c r="Y20" s="4">
+        <f t="shared" si="0"/>
+        <v>56.95</v>
+      </c>
+      <c r="Z20" s="4">
+        <f t="shared" si="0"/>
+        <v>59.84</v>
+      </c>
+      <c r="AA20" s="4">
+        <f t="shared" si="0"/>
+        <v>62.84</v>
+      </c>
+      <c r="AB20" s="4">
+        <f t="shared" si="0"/>
+        <v>65.2</v>
+      </c>
+      <c r="AC20" s="4">
+        <f t="shared" si="0"/>
+        <v>67.14</v>
+      </c>
+      <c r="AD20" s="4">
+        <f t="shared" si="0"/>
+        <v>69.08</v>
+      </c>
+      <c r="AE20" s="4">
+        <f t="shared" si="0"/>
+        <v>71.22</v>
+      </c>
+      <c r="AF20" s="4">
+        <f t="shared" si="0"/>
+        <v>73.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>28.41</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>30.25</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>27.4</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>27.07</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>27.54</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>28.39</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>29.51</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>30.69</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>31.96</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>33.43</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="0"/>
+        <v>36.17</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>37.549999999999997</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="0"/>
+        <v>38.89</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="0"/>
+        <v>39.869999999999997</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="0"/>
+        <v>40.01</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="0"/>
+        <v>31.87</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="0"/>
+        <v>32.909999999999997</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="0"/>
+        <v>37.869999999999997</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="0"/>
+        <v>42.27</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="0"/>
+        <v>45.81</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="0"/>
+        <v>49.14</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="0"/>
+        <v>52.43</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" si="0"/>
+        <v>55.71</v>
+      </c>
+      <c r="Z21" s="4">
+        <f t="shared" si="0"/>
+        <v>58.69</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" si="0"/>
+        <v>61.71</v>
+      </c>
+      <c r="AB21" s="4">
+        <f t="shared" si="0"/>
+        <v>64.760000000000005</v>
+      </c>
+      <c r="AC21" s="4">
+        <f t="shared" si="0"/>
+        <v>67.55</v>
+      </c>
+      <c r="AD21" s="4">
+        <f t="shared" si="0"/>
+        <v>70.260000000000005</v>
+      </c>
+      <c r="AE21" s="4">
+        <f t="shared" si="0"/>
+        <v>73.180000000000007</v>
+      </c>
+      <c r="AF21" s="4">
+        <f t="shared" si="0"/>
+        <v>75.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>24.15</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>23.98</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>24.42</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>25.24</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>26.24</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>27.42</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>28.77</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>30.11</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>33.1</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>34.56</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="0"/>
+        <v>36.03</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="0"/>
+        <v>37.51</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="0"/>
+        <v>38.869999999999997</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="0"/>
+        <v>39.53</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="0"/>
+        <v>37.22</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="0"/>
+        <v>30.15</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="0"/>
+        <v>33.020000000000003</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="0"/>
+        <v>37.65</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="0"/>
+        <v>42.19</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="0"/>
+        <v>45.83</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="0"/>
+        <v>49.24</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="0"/>
+        <v>52.62</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" si="0"/>
+        <v>56.01</v>
+      </c>
+      <c r="Z22" s="4">
+        <f t="shared" si="0"/>
+        <v>59.11</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="0"/>
+        <v>62.27</v>
+      </c>
+      <c r="AB22" s="4">
+        <f t="shared" si="0"/>
+        <v>65.489999999999995</v>
+      </c>
+      <c r="AC22" s="4">
+        <f t="shared" si="0"/>
+        <v>68.48</v>
+      </c>
+      <c r="AD22" s="4">
+        <f t="shared" si="0"/>
+        <v>71.45</v>
+      </c>
+      <c r="AE22" s="4">
+        <f t="shared" si="0"/>
+        <v>74.72</v>
+      </c>
+      <c r="AF22" s="4">
+        <f t="shared" si="0"/>
+        <v>77.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B24" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991FA4-8107-4C69-92B8-084B34818B16}">
+  <dimension ref="A1:AF24"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="21" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1">
+        <v>80</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1">
+        <v>125</v>
+      </c>
+      <c r="K6" s="1">
+        <v>160</v>
+      </c>
+      <c r="L6" s="1">
+        <v>200</v>
+      </c>
+      <c r="M6" s="1">
+        <v>250</v>
+      </c>
+      <c r="N6" s="1">
+        <v>315</v>
+      </c>
+      <c r="O6" s="1">
+        <v>400</v>
+      </c>
+      <c r="P6" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>630</v>
+      </c>
+      <c r="R6" s="1">
+        <v>800</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1250</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1600</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="W6" s="1">
+        <v>2500</v>
+      </c>
+      <c r="X6" s="1">
+        <v>3150</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>12500</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>16000</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>28.42</v>
+      </c>
+      <c r="C7" s="6">
+        <v>30.36</v>
+      </c>
+      <c r="D7" s="6">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="E7" s="6">
+        <v>34.44</v>
+      </c>
+      <c r="F7" s="6">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="G7" s="6">
+        <v>38.39</v>
+      </c>
+      <c r="H7" s="6">
+        <v>40.46</v>
+      </c>
+      <c r="I7" s="6">
+        <v>42.4</v>
+      </c>
+      <c r="J7" s="6">
+        <v>44.34</v>
+      </c>
+      <c r="K7" s="6">
+        <v>27.22</v>
+      </c>
+      <c r="L7" s="6">
+        <v>34.82</v>
+      </c>
+      <c r="M7" s="6">
+        <v>39.4</v>
+      </c>
+      <c r="N7" s="6">
+        <v>43.3</v>
+      </c>
+      <c r="O7" s="6">
+        <v>46.95</v>
+      </c>
+      <c r="P7" s="6">
+        <v>50.15</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>53.34</v>
+      </c>
+      <c r="R7" s="6">
+        <v>56.56</v>
+      </c>
+      <c r="S7" s="6">
+        <v>59.52</v>
+      </c>
+      <c r="T7" s="6">
+        <v>62.45</v>
+      </c>
+      <c r="U7" s="6">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="V7" s="6">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="W7" s="6">
+        <v>71.42</v>
+      </c>
+      <c r="X7" s="6">
+        <v>74.39</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>77.459999999999994</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>80.319999999999993</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>83.29</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>86.36</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>89.23</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>92.1</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>86.48</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>88.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1">
+        <v>80</v>
+      </c>
+      <c r="I12" s="1">
+        <v>100</v>
+      </c>
+      <c r="J12" s="1">
+        <v>125</v>
+      </c>
+      <c r="K12" s="1">
+        <v>160</v>
+      </c>
+      <c r="L12" s="1">
+        <v>200</v>
+      </c>
+      <c r="M12" s="1">
+        <v>250</v>
+      </c>
+      <c r="N12" s="1">
+        <v>315</v>
+      </c>
+      <c r="O12" s="1">
+        <v>400</v>
+      </c>
+      <c r="P12" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>630</v>
+      </c>
+      <c r="R12" s="1">
+        <v>800</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1250</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1600</v>
+      </c>
+      <c r="V12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="W12" s="1">
+        <v>2500</v>
+      </c>
+      <c r="X12" s="1">
+        <v>3150</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>12500</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>16000</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1">
+        <v>63</v>
+      </c>
+      <c r="H18" s="1">
+        <v>80</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+      <c r="J18" s="1">
+        <v>125</v>
+      </c>
+      <c r="K18" s="1">
+        <v>160</v>
+      </c>
+      <c r="L18" s="1">
+        <v>200</v>
+      </c>
+      <c r="M18" s="1">
+        <v>250</v>
+      </c>
+      <c r="N18" s="1">
+        <v>315</v>
+      </c>
+      <c r="O18" s="1">
+        <v>400</v>
+      </c>
+      <c r="P18" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>630</v>
+      </c>
+      <c r="R18" s="1">
+        <v>800</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1250</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1600</v>
+      </c>
+      <c r="V18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="W18" s="1">
+        <v>2500</v>
+      </c>
+      <c r="X18" s="1">
+        <v>3150</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>12500</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" ref="B19:AF22" si="0">B7-B13</f>
+        <v>28.42</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>30.36</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>32.369999999999997</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>34.44</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>36.380000000000003</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>38.39</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>40.46</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>42.4</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>44.34</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>27.22</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>34.82</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="0"/>
+        <v>39.4</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>43.3</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="0"/>
+        <v>46.95</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="0"/>
+        <v>50.15</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="0"/>
+        <v>53.34</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="0"/>
+        <v>56.56</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="0"/>
+        <v>59.52</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="0"/>
+        <v>62.45</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="0"/>
+        <v>65.650000000000006</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="0"/>
+        <v>68.540000000000006</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="0"/>
+        <v>71.42</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="0"/>
+        <v>74.39</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="0"/>
+        <v>77.459999999999994</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="0"/>
+        <v>80.319999999999993</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" si="0"/>
+        <v>83.29</v>
+      </c>
+      <c r="AB19" s="4">
+        <f t="shared" si="0"/>
+        <v>86.36</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" si="0"/>
+        <v>89.23</v>
+      </c>
+      <c r="AD19" s="4">
+        <f t="shared" si="0"/>
+        <v>92.1</v>
+      </c>
+      <c r="AE19" s="4">
+        <f t="shared" si="0"/>
+        <v>86.48</v>
+      </c>
+      <c r="AF19" s="4">
+        <f t="shared" si="0"/>
+        <v>88.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B24" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D7E945-9AE6-4F91-B1DE-337C367850F2}">
+  <dimension ref="A1:AF24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="21" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1">
+        <v>80</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1">
+        <v>125</v>
+      </c>
+      <c r="K6" s="1">
+        <v>160</v>
+      </c>
+      <c r="L6" s="1">
+        <v>200</v>
+      </c>
+      <c r="M6" s="1">
+        <v>250</v>
+      </c>
+      <c r="N6" s="1">
+        <v>315</v>
+      </c>
+      <c r="O6" s="1">
+        <v>400</v>
+      </c>
+      <c r="P6" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>630</v>
+      </c>
+      <c r="R6" s="1">
+        <v>800</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1250</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1600</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="W6" s="1">
+        <v>2500</v>
+      </c>
+      <c r="X6" s="1">
+        <v>3150</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>12500</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>16000</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6">
+        <v>41.18</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43.12</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45.13</v>
+      </c>
+      <c r="E8" s="6">
+        <v>47.2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>49.14</v>
+      </c>
+      <c r="G8" s="6">
+        <v>51.15</v>
+      </c>
+      <c r="H8" s="6">
+        <v>53.22</v>
+      </c>
+      <c r="I8" s="6">
+        <v>55.16</v>
+      </c>
+      <c r="J8" s="6">
+        <v>57.1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>59.24</v>
+      </c>
+      <c r="L8" s="6">
+        <v>61.18</v>
+      </c>
+      <c r="M8" s="6">
+        <v>61.89</v>
+      </c>
+      <c r="N8" s="6">
+        <v>62.19</v>
+      </c>
+      <c r="O8" s="6">
+        <v>62.59</v>
+      </c>
+      <c r="P8" s="6">
+        <v>64.48</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="R8" s="6">
+        <v>69.58</v>
+      </c>
+      <c r="S8" s="6">
+        <v>72.010000000000005</v>
+      </c>
+      <c r="T8" s="6">
+        <v>74.44</v>
+      </c>
+      <c r="U8" s="6">
+        <v>77.12</v>
+      </c>
+      <c r="V8" s="6">
+        <v>79.55</v>
+      </c>
+      <c r="W8" s="6">
+        <v>81.97</v>
+      </c>
+      <c r="X8" s="6">
+        <v>84.49</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>87.08</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>89.14</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>91.15</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>93.22</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>95.16</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>97.1</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>99.24</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>101.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1">
+        <v>80</v>
+      </c>
+      <c r="I12" s="1">
+        <v>100</v>
+      </c>
+      <c r="J12" s="1">
+        <v>125</v>
+      </c>
+      <c r="K12" s="1">
+        <v>160</v>
+      </c>
+      <c r="L12" s="1">
+        <v>200</v>
+      </c>
+      <c r="M12" s="1">
+        <v>250</v>
+      </c>
+      <c r="N12" s="1">
+        <v>315</v>
+      </c>
+      <c r="O12" s="1">
+        <v>400</v>
+      </c>
+      <c r="P12" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>630</v>
+      </c>
+      <c r="R12" s="1">
+        <v>800</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1250</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1600</v>
+      </c>
+      <c r="V12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="W12" s="1">
+        <v>2500</v>
+      </c>
+      <c r="X12" s="1">
+        <v>3150</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>12500</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>16000</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1">
+        <v>63</v>
+      </c>
+      <c r="H18" s="1">
+        <v>80</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+      <c r="J18" s="1">
+        <v>125</v>
+      </c>
+      <c r="K18" s="1">
+        <v>160</v>
+      </c>
+      <c r="L18" s="1">
+        <v>200</v>
+      </c>
+      <c r="M18" s="1">
+        <v>250</v>
+      </c>
+      <c r="N18" s="1">
+        <v>315</v>
+      </c>
+      <c r="O18" s="1">
+        <v>400</v>
+      </c>
+      <c r="P18" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>630</v>
+      </c>
+      <c r="R18" s="1">
+        <v>800</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1250</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1600</v>
+      </c>
+      <c r="V18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="W18" s="1">
+        <v>2500</v>
+      </c>
+      <c r="X18" s="1">
+        <v>3150</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>4000</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>12500</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" ref="B19:AF22" si="0">B7-B13</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>41.18</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>43.12</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>45.13</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>47.2</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>49.14</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>51.15</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>53.22</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>55.16</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>57.1</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>59.24</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>61.18</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="0"/>
+        <v>61.89</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>62.19</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="0"/>
+        <v>62.59</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="0"/>
+        <v>64.48</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="0"/>
+        <v>66.989999999999995</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="0"/>
+        <v>69.58</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="0"/>
+        <v>72.010000000000005</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="0"/>
+        <v>74.44</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="0"/>
+        <v>77.12</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="0"/>
+        <v>79.55</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="0"/>
+        <v>81.97</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="0"/>
+        <v>84.49</v>
+      </c>
+      <c r="Y20" s="4">
+        <f t="shared" si="0"/>
+        <v>87.08</v>
+      </c>
+      <c r="Z20" s="4">
+        <f t="shared" si="0"/>
+        <v>89.14</v>
+      </c>
+      <c r="AA20" s="4">
+        <f t="shared" si="0"/>
+        <v>91.15</v>
+      </c>
+      <c r="AB20" s="4">
+        <f t="shared" si="0"/>
+        <v>93.22</v>
+      </c>
+      <c r="AC20" s="4">
+        <f t="shared" si="0"/>
+        <v>95.16</v>
+      </c>
+      <c r="AD20" s="4">
+        <f t="shared" si="0"/>
+        <v>97.1</v>
+      </c>
+      <c r="AE20" s="4">
+        <f t="shared" si="0"/>
+        <v>99.24</v>
+      </c>
+      <c r="AF20" s="4">
+        <f t="shared" si="0"/>
+        <v>101.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B24" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Planilla Resultados.xlsx
+++ b/Planilla Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba58f79a5dcad87f/Escritorio/facultad/materias/Acústica y Psicoacústica II/AyP2-mod2-TP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{D5CD8D89-CB9B-4F34-9CA0-2AEE798AD357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E8C4108-6C76-4C8D-B389-93D349747D1A}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{D5CD8D89-CB9B-4F34-9CA0-2AEE798AD357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22FA249A-130F-44CF-9A44-6981EAF96C86}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1990,7 +1990,7 @@
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Planilla Resultados.xlsx
+++ b/Planilla Resultados.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba58f79a5dcad87f/Escritorio/facultad/materias/Acústica y Psicoacústica II/AyP2-mod2-TP1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blakz\OneDrive\Documentos\AyPII TP1\AyP2-mod2-TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{D5CD8D89-CB9B-4F34-9CA0-2AEE798AD357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22FA249A-130F-44CF-9A44-6981EAF96C86}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5126F8-BE9C-4E1E-8EC3-764977964A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
+    <sheet name="Plantilla" sheetId="11" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>SHARP</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>DIFERENCIA</t>
+  </si>
+  <si>
+    <t>Hormigón</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E23-4D8E-BA20-E0B598E44F08}"/>
+              <c16:uniqueId val="{00000000-04A5-45FF-8ED2-53A8566D0CDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -509,7 +512,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E23-4D8E-BA20-E0B598E44F08}"/>
+              <c16:uniqueId val="{00000001-04A5-45FF-8ED2-53A8566D0CDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -645,7 +648,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2E23-4D8E-BA20-E0B598E44F08}"/>
+              <c16:uniqueId val="{00000002-04A5-45FF-8ED2-53A8566D0CDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -789,7 +792,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2E23-4D8E-BA20-E0B598E44F08}"/>
+              <c16:uniqueId val="{00000003-04A5-45FF-8ED2-53A8566D0CDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1696,14 +1699,16 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE476C4-C83B-9BF3-9554-E1A6CCE50692}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8D15A6-B120-43DA-AF23-15F4BDE16686}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1718,10 +1723,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1986,44 +1987,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75B9373-FD92-4B9D-876C-C81A1C7C4223}">
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:32" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>220</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2157,7 +2166,7 @@
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2193,7 +2202,7 @@
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2229,7 +2238,7 @@
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2265,7 +2274,7 @@
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -2363,7 +2372,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2399,7 +2408,7 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2444,7 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2471,7 +2480,7 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -2507,7 +2516,7 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>10</v>
       </c>
@@ -2605,12 +2614,12 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" ref="B19:Q22" si="0">B7-B13</f>
+        <f t="shared" ref="B19:AF22" si="0">B7-B13</f>
         <v>0</v>
       </c>
       <c r="C19" s="4">
@@ -2674,67 +2683,67 @@
         <v>0</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" ref="C19:AF22" si="1">R7-R13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2743,127 +2752,127 @@
         <v>0</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2872,127 +2881,127 @@
         <v>0</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3001,127 +3010,127 @@
         <v>0</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
     </row>
   </sheetData>
